--- a/extraction/coral dataset/coral/raw extraction/jiang2021/jiang2021.xlsx
+++ b/extraction/coral dataset/coral/raw extraction/jiang2021/jiang2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/coral dataset/raw extraction/jiang2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/coral dataset/coral/raw extraction/jiang2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3F55A5-00F5-DA40-9C9B-C15172C7FB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EA5E81-E901-7E4F-90B1-0352247407A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15800" activeTab="1" xr2:uid="{28B522CA-39A7-CB4A-90D9-BE70C11F57E7}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27240" windowHeight="15800" xr2:uid="{0E141039-39B2-6549-AA13-912F5EF4B8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -45,43 +45,31 @@
     <t>y</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>figure 2a</t>
+  </si>
+  <si>
+    <t>figure 2b</t>
+  </si>
+  <si>
+    <t>figure 2c</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>response</t>
+    <t>raw</t>
   </si>
   <si>
     <t>error</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>npp</t>
-  </si>
-  <si>
-    <t>gpp</t>
   </si>
   <si>
     <t>abs_error</t>
   </si>
   <si>
     <t>avg_error</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>figure1a</t>
-  </si>
-  <si>
-    <t>figure 1b</t>
-  </si>
-  <si>
-    <t>figure 1c</t>
   </si>
 </sst>
 </file>
@@ -453,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338DFDE-0C64-BD47-AEA3-7E7C9FC746D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC07F508-1B26-BC45-A334-8A60BF39440D}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,822 +461,822 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>27.0102552844508</v>
+      <c r="A2" s="1">
+        <v>27.009740259740202</v>
       </c>
       <c r="B2">
-        <v>9.5302013422818702E-2</v>
+        <v>9.4155844155844104E-2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <f>ABS(B2-B3)</f>
-        <v>9.3959731543623026E-3</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(D2:D3)</f>
-        <v>1.1409395973154303E-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+        <v>1.103896103896089E-2</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(E2:E3)</f>
+        <v>1.1688311688311595E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>27.010913880699899</v>
+      <c r="A3" s="1">
+        <v>27.010489510489499</v>
       </c>
       <c r="B3">
-        <v>0.104697986577181</v>
+        <v>0.10519480519480499</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <f>ABS(B2-B4)</f>
-        <v>1.3422818791946303E-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B2-B4)</f>
+        <v>1.23376623376623E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>27.009314432666301</v>
+      <c r="A4" s="1">
+        <v>27.008902861844</v>
       </c>
       <c r="B4">
-        <v>8.1879194630872398E-2</v>
+        <v>8.1818181818181804E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>28.723358213636001</v>
+      <c r="A5" s="1">
+        <v>28.6958629605688</v>
       </c>
       <c r="B5">
-        <v>0.135570469798657</v>
+        <v>0.13636363636363599</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
-        <f>ABS(B5-B6)</f>
-        <v>2.5503355704698E-2</v>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D5:D6)</f>
-        <v>2.6174496644294998E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
+        <f t="shared" ref="E5:E46" si="0">ABS(B5-B6)</f>
+        <v>2.4675324675325017E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5" si="1">AVERAGE(E5:E6)</f>
+        <v>2.5649350649351005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>28.697108448849001</v>
+      <c r="A6" s="1">
+        <v>28.6975377563612</v>
       </c>
       <c r="B6">
-        <v>0.161073825503355</v>
+        <v>0.16103896103896101</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f>ABS(B5-B7)</f>
-        <v>2.6845637583891996E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E46" si="2">AVERAGE(B5-B7)</f>
+        <v>2.6623376623376993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>28.7074578184783</v>
+      <c r="A7" s="1">
+        <v>28.694055944055901</v>
       </c>
       <c r="B7">
-        <v>0.108724832214765</v>
+        <v>0.109740259740259</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>31.222636893934599</v>
+      <c r="A8" s="1">
+        <v>31.2109214315096</v>
       </c>
       <c r="B8">
-        <v>0.19194630872483201</v>
+        <v>0.19155844155844101</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D46" si="0">ABS(B8-B9)</f>
-        <v>1.3422818791945984E-2</v>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" si="1">AVERAGE(D8:D9)</f>
-        <v>1.4429530201342494E-2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+        <f t="shared" ref="E8:E46" si="3">ABS(B8-B9)</f>
+        <v>1.3636363636364002E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="4">AVERAGE(E8:E9)</f>
+        <v>1.4285714285714513E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>31.223577745719101</v>
+      <c r="A9" s="1">
+        <v>31.211846976552799</v>
       </c>
       <c r="B9">
-        <v>0.20536912751677799</v>
+        <v>0.20519480519480501</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D46" si="2">ABS(B8-B10)</f>
-        <v>1.5436241610739004E-2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E46" si="5">AVERAGE(B8-B10)</f>
+        <v>1.4935064935065023E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>31.235573605971201</v>
+      <c r="A10" s="1">
+        <v>31.2234823999529</v>
       </c>
       <c r="B10">
-        <v>0.17651006711409301</v>
+        <v>0.17662337662337599</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>31.806341341027402</v>
+      <c r="A11" s="1">
+        <v>31.816888993359498</v>
       </c>
       <c r="B11">
-        <v>0.119463087248322</v>
+        <v>0.11948051948051901</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D46" si="3">ABS(B11-B12)</f>
-        <v>9.3959731543619973E-3</v>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="4">AVERAGE(D11:D12)</f>
-        <v>9.3959731543624969E-3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
+        <f t="shared" ref="E11:E46" si="6">ABS(B11-B12)</f>
+        <v>1.0389610389609991E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="7">AVERAGE(E11:E12)</f>
+        <v>9.7402597402595006E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>31.806999937276501</v>
+      <c r="A12" s="1">
+        <v>31.817594170535301</v>
       </c>
       <c r="B12">
-        <v>0.12885906040268399</v>
+        <v>0.129870129870129</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D46" si="5">ABS(B11-B13)</f>
-        <v>9.3959731543629965E-3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E46" si="8">AVERAGE(B11-B13)</f>
+        <v>9.0909090909090107E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>31.805682744778199</v>
+      <c r="A13" s="1">
+        <v>31.816271963330699</v>
       </c>
       <c r="B13">
-        <v>0.110067114093959</v>
+        <v>0.11038961038961</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>32.813711346672498</v>
+      <c r="A14" s="1">
+        <v>32.792413468884</v>
       </c>
       <c r="B14">
-        <v>9.1275167785234895E-2</v>
+        <v>9.2207792207792197E-2</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D46" si="6">ABS(B14-B15)</f>
-        <v>1.4093959731543107E-2</v>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="7">AVERAGE(D14:D15)</f>
-        <v>1.3758389261744754E-2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
+        <f t="shared" ref="E14:E46" si="9">ABS(B14-B15)</f>
+        <v>1.3636363636362808E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="10">AVERAGE(E14:E15)</f>
+        <v>1.3636363636363252E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>32.786661857868602</v>
+      <c r="A15" s="1">
+        <v>32.793339013927202</v>
       </c>
       <c r="B15">
-        <v>0.105369127516778</v>
+        <v>0.10584415584415501</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D46" si="8">ABS(B14-B16)</f>
-        <v>1.34228187919464E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E46" si="11">AVERAGE(B14-B16)</f>
+        <v>1.3636363636363696E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>32.826789186476802</v>
+      <c r="A16" s="1">
+        <v>32.791487923840798</v>
       </c>
       <c r="B16">
-        <v>7.7852348993288495E-2</v>
+        <v>7.85714285714285E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>27</v>
       </c>
       <c r="B17">
-        <v>7.0802919708029197E-2</v>
+        <v>7.1126760563380298E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D46" si="9">ABS(B17-B18)</f>
-        <v>1.0218978102189705E-2</v>
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="10">AVERAGE(D17:D18)</f>
-        <v>1.021897810218975E-2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
+        <f t="shared" ref="E17:E46" si="12">ABS(B17-B18)</f>
+        <v>1.0563380281690099E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="13">AVERAGE(E17:E18)</f>
+        <v>1.0563380281690148E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>8.1021897810218901E-2</v>
+        <v>8.1690140845070397E-2</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D46" si="11">ABS(B17-B19)</f>
-        <v>1.0218978102189795E-2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E46" si="14">AVERAGE(B17-B19)</f>
+        <v>1.0563380281690196E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6.0583941605839402E-2</v>
+        <v>6.0563380281690102E-2</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>7</v>
+      <c r="D19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>28.696261682242898</v>
+      <c r="A20" s="1">
+        <v>28.6968325791855</v>
       </c>
       <c r="B20">
-        <v>0.13503649635036499</v>
+        <v>0.134507042253521</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D46" si="12">ABS(B20-B21)</f>
-        <v>1.8978102189781021E-2</v>
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="13">AVERAGE(D20:D21)</f>
-        <v>1.8978102189781507E-2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
+        <f t="shared" ref="E20:E46" si="15">ABS(B20-B21)</f>
+        <v>1.9014084507042006E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="16">AVERAGE(E20:E21)</f>
+        <v>1.9014084507042506E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>28.696261682242898</v>
+      <c r="A21" s="1">
+        <v>28.683257918551998</v>
       </c>
       <c r="B21">
-        <v>0.15401459854014601</v>
+        <v>0.15352112676056301</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D46" si="14">ABS(B20-B22)</f>
-        <v>1.8978102189781992E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E46" si="17">AVERAGE(B20-B22)</f>
+        <v>1.9014084507043005E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>28.710280373831701</v>
+      <c r="A22" s="1">
+        <v>28.6968325791855</v>
       </c>
       <c r="B22">
-        <v>0.116058394160583</v>
+        <v>0.115492957746478</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
-        <v>7</v>
+      <c r="D22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>31.2056074766355</v>
+      <c r="A23" s="1">
+        <v>31.194570135746599</v>
       </c>
       <c r="B23">
-        <v>0.17518248175182399</v>
+        <v>0.17464788732394301</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D46" si="15">ABS(B23-B24)</f>
-        <v>1.9708029197081006E-2</v>
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="16">AVERAGE(D23:D24)</f>
-        <v>1.9708029197080493E-2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
+        <f t="shared" ref="E23:E46" si="18">ABS(B23-B24)</f>
+        <v>1.9718309859154987E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="19">AVERAGE(E23:E24)</f>
+        <v>1.9718309859155E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>31.2056074766355</v>
+      <c r="A24" s="1">
+        <v>31.194570135746599</v>
       </c>
       <c r="B24">
-        <v>0.194890510948905</v>
+        <v>0.194366197183098</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D46" si="17">ABS(B23-B25)</f>
-        <v>1.9708029197079979E-2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E46" si="20">AVERAGE(B23-B25)</f>
+        <v>1.9718309859155014E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>31.2056074766355</v>
+      <c r="A25" s="1">
+        <v>31.194570135746599</v>
       </c>
       <c r="B25">
-        <v>0.15547445255474401</v>
+        <v>0.154929577464788</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>7</v>
+      <c r="D25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>31.794392523364401</v>
+      <c r="A26" s="1">
+        <v>31.7918552036199</v>
       </c>
       <c r="B26">
-        <v>0.13211678832116699</v>
+        <v>0.13239436619718301</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D46" si="18">ABS(B26-B27)</f>
-        <v>7.2992700729929971E-3</v>
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="19">AVERAGE(D26:D27)</f>
-        <v>6.9343065693429906E-3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
+        <f t="shared" ref="E26:E46" si="21">ABS(B26-B27)</f>
+        <v>7.0422535211260018E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="22">AVERAGE(E26:E27)</f>
+        <v>6.3380281690140067E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>31.794392523364401</v>
+      <c r="A27" s="1">
+        <v>31.7918552036199</v>
       </c>
       <c r="B27">
-        <v>0.13941605839415999</v>
+        <v>0.13943661971830901</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27">
-        <f t="shared" ref="D27:D46" si="20">ABS(B26-B28)</f>
-        <v>6.5693430656929841E-3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E46" si="23">AVERAGE(B26-B28)</f>
+        <v>5.6338028169020116E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>31.794392523364401</v>
+      <c r="A28" s="1">
+        <v>31.805429864253298</v>
       </c>
       <c r="B28">
-        <v>0.12554744525547401</v>
+        <v>0.12676056338028099</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>7</v>
+      <c r="D28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>32.803738317757002</v>
+      <c r="A29" s="1">
+        <v>32.796380090497699</v>
       </c>
       <c r="B29">
-        <v>-3.4306569343065599E-2</v>
+        <v>-3.3802816901408503E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ref="D29:D46" si="21">ABS(B29-B30)</f>
-        <v>1.1678832116788197E-2</v>
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29" si="22">AVERAGE(D29:D30)</f>
-        <v>1.1678832116788298E-2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
+        <f t="shared" ref="E29:E46" si="24">ABS(B29-B30)</f>
+        <v>1.1267605633802903E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="25">AVERAGE(E29:E30)</f>
+        <v>1.1267605633802849E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>32.803738317757002</v>
+      <c r="A30" s="1">
+        <v>32.796380090497699</v>
       </c>
       <c r="B30">
-        <v>-2.2627737226277402E-2</v>
+        <v>-2.25352112676056E-2</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30">
-        <f t="shared" ref="D30:D46" si="23">ABS(B29-B31)</f>
-        <v>1.1678832116788398E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E46" si="26">AVERAGE(B29-B31)</f>
+        <v>1.1267605633802795E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>32.803738317757002</v>
+      <c r="A31" s="1">
+        <v>32.796380090497699</v>
       </c>
       <c r="B31">
-        <v>-4.5985401459853997E-2</v>
+        <v>-4.5070422535211298E-2</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>7</v>
+      <c r="D31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>27</v>
       </c>
       <c r="B32">
-        <v>8.2022471910112305E-2</v>
+        <v>0.16328767123287599</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:D46" si="24">ABS(B32-B33)</f>
-        <v>7.8651685393258952E-3</v>
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="25">AVERAGE(D32:D33)</f>
-        <v>7.8651685393257495E-3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
+        <f t="shared" ref="E32:E46" si="27">ABS(B32-B33)</f>
+        <v>1.5342465753425016E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="28">AVERAGE(E32:E33)</f>
+        <v>1.5342465753424503E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>27</v>
       </c>
       <c r="B33">
-        <v>8.98876404494382E-2</v>
+        <v>0.17863013698630101</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ref="D33:D46" si="26">ABS(B32-B34)</f>
-        <v>7.8651685393256038E-3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E46" si="29">AVERAGE(B32-B34)</f>
+        <v>1.5342465753423989E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
       <c r="B34">
-        <v>7.4157303370786701E-2</v>
+        <v>0.147945205479452</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>28.7023255813953</v>
+      <c r="A35" s="1">
+        <v>28.6968325791855</v>
       </c>
       <c r="B35">
-        <v>0.133707865168539</v>
+        <v>0.26958904109588999</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35:D46" si="27">ABS(B35-B36)</f>
-        <v>1.7977528089888006E-2</v>
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="28">AVERAGE(D35:D36)</f>
-        <v>1.6853932584270002E-2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
+        <f t="shared" ref="E35:E46" si="30">ABS(B35-B36)</f>
+        <v>3.3972602739726021E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="31">AVERAGE(E35:E36)</f>
+        <v>3.2876712328767002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>28.7023255813953</v>
+      <c r="A36" s="1">
+        <v>28.6968325791855</v>
       </c>
       <c r="B36">
-        <v>0.151685393258427</v>
+        <v>0.30356164383561601</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ref="D36:D46" si="29">ABS(B35-B37)</f>
-        <v>1.5730337078651999E-2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E46" si="32">AVERAGE(B35-B37)</f>
+        <v>3.1780821917807983E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>28.7023255813953</v>
+      <c r="A37" s="1">
+        <v>28.6968325791855</v>
       </c>
       <c r="B37">
-        <v>0.117977528089887</v>
+        <v>0.23780821917808201</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>31.2</v>
+      <c r="A38" s="1">
+        <v>31.194570135746599</v>
       </c>
       <c r="B38">
-        <v>0.18258426966292099</v>
+        <v>0.36493150684931502</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ref="D38:D46" si="30">ABS(B38-B39)</f>
-        <v>1.1797752808989009E-2</v>
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="31">AVERAGE(D38:D39)</f>
-        <v>1.1235955056179997E-2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
+        <f t="shared" ref="E38:E46" si="33">ABS(B38-B39)</f>
+        <v>2.4109589041096002E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38" si="34">AVERAGE(E38:E39)</f>
+        <v>2.2465753424657509E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>31.213953488371999</v>
+      <c r="A39" s="1">
+        <v>31.194570135746599</v>
       </c>
       <c r="B39">
-        <v>0.19438202247191</v>
+        <v>0.38904109589041103</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D46" si="32">ABS(B38-B40)</f>
-        <v>1.0674157303370985E-2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E46" si="35">AVERAGE(B38-B40)</f>
+        <v>2.0821917808219015E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>31.213953488371999</v>
+      <c r="A40" s="1">
+        <v>31.194570135746599</v>
       </c>
       <c r="B40">
-        <v>0.17191011235955</v>
+        <v>0.34410958904109601</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>31.8</v>
+      <c r="A41" s="1">
+        <v>31.7918552036199</v>
       </c>
       <c r="B41">
-        <v>0.126404494382022</v>
+        <v>0.253150684931506</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ref="D41:D46" si="33">ABS(B41-B42)</f>
-        <v>3.9325842696630031E-3</v>
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="34">AVERAGE(D41:D42)</f>
-        <v>3.9325842696630031E-3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
+        <f t="shared" ref="E41:E46" si="36">ABS(B41-B42)</f>
+        <v>6.575342465753975E-3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="37">AVERAGE(E41:E42)</f>
+        <v>6.5753424657534892E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>31.8</v>
+      <c r="A42" s="1">
+        <v>31.7918552036199</v>
       </c>
       <c r="B42">
-        <v>0.13033707865168501</v>
+        <v>0.25972602739725997</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D46" si="35">ABS(B41-B43)</f>
-        <v>3.9325842696630031E-3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E46" si="38">AVERAGE(B41-B43)</f>
+        <v>6.5753424657530035E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>31.8</v>
+      <c r="A43" s="1">
+        <v>31.7918552036199</v>
       </c>
       <c r="B43">
-        <v>0.122471910112359</v>
+        <v>0.24657534246575299</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>32.7767441860465</v>
+      <c r="A44" s="1">
+        <v>32.796380090497699</v>
       </c>
       <c r="B44">
-        <v>2.92134831460674E-2</v>
+        <v>5.6986301369863199E-2</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ref="D44:D46" si="36">ABS(B44-B45)</f>
-        <v>1.23595505617978E-2</v>
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44" si="37">AVERAGE(D44:D45)</f>
-        <v>1.2359550561797749E-2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
+        <f t="shared" ref="E44:E46" si="39">ABS(B44-B45)</f>
+        <v>2.5205479452054702E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="40">AVERAGE(E44:E45)</f>
+        <v>2.5205479452054751E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>32.7767441860465</v>
+      <c r="A45" s="1">
+        <v>32.796380090497699</v>
       </c>
       <c r="B45">
-        <v>4.1573033707865199E-2</v>
+        <v>8.2191780821917901E-2</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ref="D45:D46" si="38">ABS(B44-B46)</f>
-        <v>1.2359550561797699E-2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E46" si="41">AVERAGE(B44-B46)</f>
+        <v>2.5205479452054799E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>32.7767441860465</v>
+      <c r="A46" s="1">
+        <v>32.796380090497699</v>
       </c>
       <c r="B46">
-        <v>1.6853932584269701E-2</v>
+        <v>3.1780821917808399E-2</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1298,11 +1286,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7924F4-1097-1140-A215-DDF956605E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF342D74-E949-0E45-94E2-1D633AAAF277}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D2:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1315,98 +1303,98 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>27.0102552844508</v>
+        <v>27.009740259740202</v>
       </c>
       <c r="B2">
-        <v>9.5302013422818702E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.1409395973154303E-2</v>
+        <v>9.4155844155844104E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1.1688311688311595E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>28.723358213636001</v>
+        <v>28.6958629605688</v>
       </c>
       <c r="B3">
-        <v>0.135570469798657</v>
-      </c>
-      <c r="C3">
-        <v>2.6174496644294998E-2</v>
+        <v>0.13636363636363599</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2.5649350649351005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>31.222636893934599</v>
+        <v>31.2109214315096</v>
       </c>
       <c r="B4">
-        <v>0.19194630872483201</v>
-      </c>
-      <c r="C4">
-        <v>1.4429530201342494E-2</v>
+        <v>0.19155844155844101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1.4285714285714513E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>31.806341341027402</v>
+        <v>31.816888993359498</v>
       </c>
       <c r="B5">
-        <v>0.119463087248322</v>
-      </c>
-      <c r="C5">
-        <v>9.3959731543624969E-3</v>
+        <v>0.11948051948051901</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>9.7402597402595006E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>32.813711346672498</v>
+        <v>32.792413468884</v>
       </c>
       <c r="B6">
-        <v>9.1275167785234895E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.3758389261744754E-2</v>
+        <v>9.2207792207792197E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1.3636363636363252E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1414,84 +1402,84 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>7.0802919708029197E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.021897810218975E-2</v>
+        <v>7.1126760563380298E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
+      <c r="E7">
+        <v>1.0563380281690148E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>28.696261682242898</v>
+        <v>28.6968325791855</v>
       </c>
       <c r="B8">
-        <v>0.13503649635036499</v>
-      </c>
-      <c r="C8">
-        <v>1.8978102189781507E-2</v>
+        <v>0.134507042253521</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
+      <c r="E8">
+        <v>1.9014084507042506E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>31.2056074766355</v>
+        <v>31.194570135746599</v>
       </c>
       <c r="B9">
-        <v>0.17518248175182399</v>
-      </c>
-      <c r="C9">
-        <v>1.9708029197080493E-2</v>
+        <v>0.17464788732394301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
+      <c r="E9">
+        <v>1.9718309859155E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>31.794392523364401</v>
+        <v>31.7918552036199</v>
       </c>
       <c r="B10">
-        <v>0.13211678832116699</v>
-      </c>
-      <c r="C10">
-        <v>6.9343065693429906E-3</v>
+        <v>0.13239436619718301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
+      <c r="E10">
+        <v>6.3380281690140067E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>32.803738317757002</v>
+        <v>32.796380090497699</v>
       </c>
       <c r="B11">
-        <v>-3.4306569343065599E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.1678832116788298E-2</v>
+        <v>-3.3802816901408503E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
+      <c r="E11">
+        <v>1.1267605633802849E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1499,84 +1487,84 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>8.2022471910112305E-2</v>
-      </c>
-      <c r="C12">
-        <v>7.8651685393257495E-3</v>
+        <v>0.16328767123287599</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1.5342465753424503E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>28.7023255813953</v>
+        <v>28.6968325791855</v>
       </c>
       <c r="B13">
-        <v>0.133707865168539</v>
-      </c>
-      <c r="C13">
-        <v>1.6853932584270002E-2</v>
+        <v>0.26958904109588999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>3.2876712328767002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>31.2</v>
+        <v>31.194570135746599</v>
       </c>
       <c r="B14">
-        <v>0.18258426966292099</v>
-      </c>
-      <c r="C14">
-        <v>1.1235955056179997E-2</v>
+        <v>0.36493150684931502</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2.2465753424657509E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>31.8</v>
+        <v>31.7918552036199</v>
       </c>
       <c r="B15">
-        <v>0.126404494382022</v>
-      </c>
-      <c r="C15">
-        <v>3.9325842696630031E-3</v>
+        <v>0.253150684931506</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>6.5753424657534892E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>32.7767441860465</v>
+        <v>32.796380090497699</v>
       </c>
       <c r="B16">
-        <v>2.92134831460674E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.2359550561797749E-2</v>
+        <v>5.6986301369863199E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>2.5205479452054751E-2</v>
       </c>
     </row>
   </sheetData>
